--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>347518.4067500863</v>
+        <v>370871.9423029713</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11867067.11788989</v>
+        <v>11922202.98578054</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22685711.96921097</v>
+        <v>22721791.95832266</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3291641.528431352</v>
+        <v>3269185.935075006</v>
       </c>
     </row>
     <row r="11">
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>214.0546037115793</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>228.279156979828</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>222.0152160730529</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>220.9472418750055</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>222.1041760324344</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>224.4102714990879</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>124.4392452907996</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>133.7422231944371</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>133.0424782891217</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>135.7019048619078</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>124.739343706399</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>136.5563672569108</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>129.1268734863556</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>136.741326030535</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8142,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>131.7205602141892</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>135.5896671967106</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>124.4287531140874</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>135.4483645121045</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8298,7 +8300,7 @@
         <v>56.29524403393702</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>14.17891314335149</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K9" t="n">
         <v>47.25897875440141</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q9" t="n">
         <v>68.37594193669796</v>
@@ -8614,19 +8616,19 @@
         <v>74.37427626277801</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N10" t="n">
         <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8708,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8945,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>52.16972933916271</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9324,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>62.00809140979796</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L19" t="n">
-        <v>49.14113189899257</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M19" t="n">
-        <v>48.52123852856002</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N19" t="n">
-        <v>39.43061707215854</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9498,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.1697293391627</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,25 +9561,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979794</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899255</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215853</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9735,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9798,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215853</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10035,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10130,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10272,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10367,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10446,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10509,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10744,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10983,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11218,16 +11220,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11455,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -11470,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22559,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.2552920008841</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>338.9889007429445</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>208.6467463822456</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>7.922410639454649</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.867117437475873</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>146.8887686565825</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>207.9389049302515</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>222.8881568254978</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3418572666964</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3181315750904</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>111.9902728985985</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>88.5226115060478</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>98.58170088321393</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.2116449385346</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.0624069602493</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9397119764932</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9696969341359</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.0379524075512</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>154.8104543848956</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>91.85451271704937</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>19.79686107274064</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1474282515537739</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>84.37993042953531</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.3364561889816</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.6457034240009</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.8546554334476</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3178684969824</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22890,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -23121,7 +23123,7 @@
         <v>70.08293774516886</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23139,7 +23141,7 @@
         <v>9.130000058643361</v>
       </c>
       <c r="P9" t="n">
-        <v>26.85597970277001</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -23206,19 +23208,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>64.96559098237566</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>65.20591187910269</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>46.78178798155719</v>
@@ -23270,49 +23272,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.0170240739369</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H11" t="n">
-        <v>326.3074893360965</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I11" t="n">
-        <v>160.9084221286138</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048567</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S11" t="n">
-        <v>179.7218745449422</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4676389752864</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,19 +23351,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5916109993956</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I12" t="n">
-        <v>65.71175959472041</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23376,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R12" t="n">
-        <v>57.4466155766215</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S12" t="n">
-        <v>158.905408270449</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T12" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,49 +23430,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0995470698808</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I13" t="n">
-        <v>138.1067275372333</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356987</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.86903925848995</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R13" t="n">
-        <v>151.3616578248528</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S13" t="n">
-        <v>213.9658230228616</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T13" t="n">
-        <v>225.481393154608</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,49 +23509,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.0170240739369</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H14" t="n">
-        <v>326.3074893360965</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I14" t="n">
-        <v>160.9084221286138</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048567</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S14" t="n">
-        <v>179.7218745449422</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4676389752864</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,19 +23588,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5916109993956</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I15" t="n">
-        <v>65.71175959472041</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23613,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.4466155766215</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S15" t="n">
-        <v>158.905408270449</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0995470698808</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I16" t="n">
-        <v>138.1067275372333</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356987</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848995</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R16" t="n">
-        <v>151.3616578248528</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S16" t="n">
-        <v>213.9658230228616</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T16" t="n">
-        <v>225.481393154608</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,49 +23746,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.0170240739369</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H17" t="n">
-        <v>326.3074893360965</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I17" t="n">
-        <v>160.9084221286138</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679383</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K17" t="n">
-        <v>56.54227989916996</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L17" t="n">
-        <v>32.8711910981084</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601003</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P17" t="n">
-        <v>46.34579576917247</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q17" t="n">
-        <v>83.46310250126157</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R17" t="n">
-        <v>134.8218408634681</v>
+        <v>134.1513557281109</v>
       </c>
       <c r="S17" t="n">
-        <v>179.7218745449422</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4676389752864</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,19 +23825,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5916109993956</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I18" t="n">
-        <v>65.71175959472041</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>26.75787480980772</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23850,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2.612367688219109</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.4466155766215</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S18" t="n">
-        <v>158.905408270449</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0995470698808</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I19" t="n">
-        <v>138.1067275372333</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356987</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23929,22 +23931,22 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.86903925848996</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R19" t="n">
-        <v>151.3616578248528</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S19" t="n">
-        <v>213.9658230228616</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T19" t="n">
-        <v>225.481393154608</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23981,49 +23983,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.0170240739369</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H20" t="n">
-        <v>326.3074893360965</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I20" t="n">
-        <v>160.9084221286138</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L20" t="n">
-        <v>32.87119109810837</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917244</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048567</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S20" t="n">
-        <v>179.7218745449422</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4676389752864</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24060,19 +24062,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5916109993956</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I21" t="n">
-        <v>65.71175959472041</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>26.7578748098077</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24087,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219081</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.4466155766215</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S21" t="n">
-        <v>158.905408270449</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0995470698808</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I22" t="n">
-        <v>138.1067275372333</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356987</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24157,7 +24159,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -24166,22 +24168,22 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848995</v>
+        <v>102.8110781322845</v>
       </c>
       <c r="R22" t="n">
-        <v>151.3616578248528</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S22" t="n">
-        <v>213.9658230228616</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T22" t="n">
-        <v>225.481393154608</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24218,49 +24220,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.0170240739369</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H23" t="n">
-        <v>326.3074893360965</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I23" t="n">
-        <v>160.9084221286138</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916993</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048567</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S23" t="n">
-        <v>179.7218745449422</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4676389752864</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24297,19 +24299,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5916109993956</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I24" t="n">
-        <v>65.71175959472041</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24324,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.4466155766215</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S24" t="n">
-        <v>158.905408270449</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24376,25 +24378,25 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0995470698808</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I25" t="n">
-        <v>138.1067275372333</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356987</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899255</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24406,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848995</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R25" t="n">
-        <v>151.3616578248528</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S25" t="n">
-        <v>213.9658230228616</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T25" t="n">
-        <v>225.481393154608</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24455,49 +24457,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.0170240739369</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H26" t="n">
-        <v>326.3074893360965</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I26" t="n">
-        <v>160.9084221286138</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048567</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S26" t="n">
-        <v>179.7218745449422</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4676389752864</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24534,19 +24536,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5916109993956</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I27" t="n">
-        <v>65.71175959472041</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24561,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.4466155766215</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S27" t="n">
-        <v>158.905408270449</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24613,16 +24615,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H28" t="n">
-        <v>157.0995470698808</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I28" t="n">
-        <v>138.1067275372333</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356987</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24645,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848995</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R28" t="n">
-        <v>151.3616578248528</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S28" t="n">
-        <v>213.9658230228616</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T28" t="n">
-        <v>225.481393154608</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24692,49 +24694,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.0170240739369</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H29" t="n">
-        <v>326.3074893360965</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I29" t="n">
-        <v>160.9084221286138</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048567</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S29" t="n">
-        <v>179.7218745449422</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4676389752864</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24771,19 +24773,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5916109993956</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I30" t="n">
-        <v>65.71175959472041</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24798,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R30" t="n">
-        <v>57.4466155766215</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S30" t="n">
-        <v>158.905408270449</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24850,16 +24852,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0995470698808</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I31" t="n">
-        <v>138.1067275372333</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356987</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24877,22 +24879,22 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848995</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R31" t="n">
-        <v>151.3616578248528</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S31" t="n">
-        <v>213.9658230228616</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T31" t="n">
-        <v>225.481393154608</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,49 +24931,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.0170240739369</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H32" t="n">
-        <v>326.3074893360965</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I32" t="n">
-        <v>160.9084221286138</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048567</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S32" t="n">
-        <v>179.7218745449422</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4676389752864</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25008,19 +25010,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5916109993956</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I33" t="n">
-        <v>65.71175959472041</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25035,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.4466155766215</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S33" t="n">
-        <v>158.905408270449</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25087,16 +25089,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0995470698808</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I34" t="n">
-        <v>138.1067275372333</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356987</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848995</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R34" t="n">
-        <v>151.3616578248528</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S34" t="n">
-        <v>213.9658230228616</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T34" t="n">
-        <v>225.481393154608</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25166,49 +25168,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.0170240739369</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H35" t="n">
-        <v>326.3074893360965</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I35" t="n">
-        <v>160.9084221286138</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048567</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S35" t="n">
-        <v>179.7218745449422</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4676389752864</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,19 +25247,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5916109993956</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I36" t="n">
-        <v>65.71175959472041</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25272,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R36" t="n">
-        <v>57.4466155766215</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S36" t="n">
-        <v>158.905408270449</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T36" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25324,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0995470698808</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I37" t="n">
-        <v>138.1067275372333</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356987</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848995</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R37" t="n">
-        <v>151.3616578248528</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S37" t="n">
-        <v>213.9658230228616</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T37" t="n">
-        <v>225.481393154608</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25403,49 +25405,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.0170240739369</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H38" t="n">
-        <v>326.3074893360965</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I38" t="n">
-        <v>160.9084221286138</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048567</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S38" t="n">
-        <v>179.7218745449422</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4676389752864</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25482,19 +25484,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5916109993956</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I39" t="n">
-        <v>65.71175959472041</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25509,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.4466155766215</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S39" t="n">
-        <v>158.905408270449</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25561,16 +25563,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H40" t="n">
-        <v>157.0995470698808</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I40" t="n">
-        <v>138.1067275372333</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356987</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25593,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848995</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R40" t="n">
-        <v>151.3616578248528</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S40" t="n">
-        <v>213.9658230228616</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T40" t="n">
-        <v>225.481393154608</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25640,49 +25642,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.0170240739369</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H41" t="n">
-        <v>326.3074893360965</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I41" t="n">
-        <v>160.9084221286138</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048567</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S41" t="n">
-        <v>179.7218745449422</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4676389752864</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25719,19 +25721,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5916109993956</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I42" t="n">
-        <v>65.71175959472041</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25746,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R42" t="n">
-        <v>57.4466155766215</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S42" t="n">
-        <v>158.905408270449</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T42" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25798,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H43" t="n">
-        <v>157.0995470698808</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I43" t="n">
-        <v>138.1067275372333</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356987</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25822,25 +25824,25 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848995</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R43" t="n">
-        <v>151.3616578248528</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S43" t="n">
-        <v>213.9658230228616</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T43" t="n">
-        <v>225.481393154608</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,49 +25879,49 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.0170240739369</v>
+        <v>414.0063503209612</v>
       </c>
       <c r="H44" t="n">
-        <v>326.3074893360965</v>
+        <v>326.1981767634345</v>
       </c>
       <c r="I44" t="n">
-        <v>160.9084221286138</v>
+        <v>160.4969222670197</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048567</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S44" t="n">
-        <v>179.7218745449422</v>
+        <v>179.4786463990094</v>
       </c>
       <c r="T44" t="n">
-        <v>217.4676389752864</v>
+        <v>217.4209146216355</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2419419323026</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,19 +25958,19 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6555998253092</v>
+        <v>136.6498888639883</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5916109993956</v>
+        <v>105.5364551361123</v>
       </c>
       <c r="I45" t="n">
-        <v>65.71175959472041</v>
+        <v>65.51513219836517</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25983,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R45" t="n">
-        <v>57.4466155766215</v>
+        <v>57.09203501320687</v>
       </c>
       <c r="S45" t="n">
-        <v>158.905408270449</v>
+        <v>158.7993296687211</v>
       </c>
       <c r="T45" t="n">
-        <v>197.3919390740697</v>
+        <v>197.3689198922544</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8957486402365</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,49 +26037,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4094646928755</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0995470698808</v>
+        <v>157.0569784807081</v>
       </c>
       <c r="I46" t="n">
-        <v>138.1067275372333</v>
+        <v>137.9627429840806</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356987</v>
+        <v>52.24609325993366</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848995</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R46" t="n">
-        <v>151.3616578248528</v>
+        <v>151.1463774137605</v>
       </c>
       <c r="S46" t="n">
-        <v>213.9658230228616</v>
+        <v>213.8823833649433</v>
       </c>
       <c r="T46" t="n">
-        <v>225.481393154608</v>
+        <v>225.4609358571529</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2873103747318</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>375254.2473996727</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>304615.7987985007</v>
+        <v>302471.0138700332</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>212801.1815538468</v>
+        <v>232158.928918807</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>285373.0956683545</v>
+        <v>251937.8431668974</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>286090.9654426889</v>
+        <v>290896.100608646</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>256307.4641678582</v>
+        <v>262300.3430616119</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>297838.2989496092</v>
+        <v>261956.2077118261</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>271629.3897840604</v>
+        <v>290896.100608646</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>278335.549181229</v>
+        <v>294034.4785264226</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>297838.2989496092</v>
+        <v>279699.7193012882</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>279943.1434994464</v>
+        <v>287117.4601246093</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>278952.7185349462</v>
+        <v>270955.5667613011</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>297838.2989496092</v>
+        <v>290896.100608646</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>269218.1526011302</v>
+        <v>270419.6933832295</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>251707.5394394895</v>
+        <v>252280.3811984689</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119183.5047843238</v>
+        <v>118258.146084591</v>
       </c>
       <c r="C2" t="n">
-        <v>120532.2858365085</v>
+        <v>119858.2105732759</v>
       </c>
       <c r="D2" t="n">
-        <v>94317.26630493818</v>
+        <v>100401.1297624971</v>
       </c>
       <c r="E2" t="n">
-        <v>122647.9010818087</v>
+        <v>112353.3483258748</v>
       </c>
       <c r="F2" t="n">
-        <v>122873.5172965995</v>
+        <v>124597.3720932814</v>
       </c>
       <c r="G2" t="n">
-        <v>113512.98832451</v>
+        <v>115610.1340070707</v>
       </c>
       <c r="H2" t="n">
-        <v>126565.5363987745</v>
+        <v>115501.9771828524</v>
       </c>
       <c r="I2" t="n">
-        <v>118328.4506610306</v>
+        <v>124597.3720932814</v>
       </c>
       <c r="J2" t="n">
-        <v>120436.1007572836</v>
+        <v>125583.7194388684</v>
       </c>
       <c r="K2" t="n">
-        <v>126565.5363987745</v>
+        <v>121078.5093966833</v>
       </c>
       <c r="L2" t="n">
-        <v>120941.3446858662</v>
+        <v>123409.799369727</v>
       </c>
       <c r="M2" t="n">
-        <v>120630.0682684519</v>
+        <v>118330.3471698302</v>
       </c>
       <c r="N2" t="n">
-        <v>126565.5363987745</v>
+        <v>124597.3720932814</v>
       </c>
       <c r="O2" t="n">
-        <v>117570.6332606811</v>
+        <v>118161.9298224363</v>
       </c>
       <c r="P2" t="n">
-        <v>112067.297695594</v>
+        <v>112461.0031357973</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11372.629688074</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>203044.1822108271</v>
+        <v>213791.1722776066</v>
       </c>
       <c r="D3" t="n">
         <v>22280.77012981693</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727416</v>
+        <v>49553.83440129749</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115217.5096884207</v>
+        <v>118258.146084591</v>
       </c>
       <c r="C4" t="n">
-        <v>41636.26606430012</v>
+        <v>40962.19080106747</v>
       </c>
       <c r="D4" t="n">
-        <v>7018.055070345426</v>
+        <v>13101.91852790432</v>
       </c>
       <c r="E4" t="n">
-        <v>17777.67512622628</v>
+        <v>6803.265001352403</v>
       </c>
       <c r="F4" t="n">
-        <v>18003.29134101709</v>
+        <v>19047.28876875907</v>
       </c>
       <c r="G4" t="n">
-        <v>8642.762368927511</v>
+        <v>10060.05068254836</v>
       </c>
       <c r="H4" t="n">
-        <v>21695.31044319202</v>
+        <v>9951.893858329975</v>
       </c>
       <c r="I4" t="n">
-        <v>13458.2247054481</v>
+        <v>19047.28876875907</v>
       </c>
       <c r="J4" t="n">
-        <v>15565.87480170113</v>
+        <v>20033.63611434601</v>
       </c>
       <c r="K4" t="n">
-        <v>21695.31044319202</v>
+        <v>15528.42607216092</v>
       </c>
       <c r="L4" t="n">
-        <v>16071.11873028373</v>
+        <v>17859.71604520465</v>
       </c>
       <c r="M4" t="n">
-        <v>15759.8423128694</v>
+        <v>12780.26384530783</v>
       </c>
       <c r="N4" t="n">
-        <v>21695.31044319202</v>
+        <v>19047.28876875907</v>
       </c>
       <c r="O4" t="n">
-        <v>12700.40730509867</v>
+        <v>12611.84649791393</v>
       </c>
       <c r="P4" t="n">
-        <v>7197.071740011586</v>
+        <v>6910.919811274869</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33884.88516240442</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
         <v>38745.80483114667</v>
@@ -26476,40 +26478,40 @@
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="G5" t="n">
-        <v>6972.102563257328</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.10256325733</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.10256325733</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>7029.98365720608</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.10256325733</v>
+        <v>7029.98365720608</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-41291.51975457529</v>
+        <v>-33627.59999999998</v>
       </c>
       <c r="C6" t="n">
-        <v>-162893.9672697654</v>
+        <v>-173640.9573365448</v>
       </c>
       <c r="D6" t="n">
         <v>25705.47974789509</v>
       </c>
       <c r="E6" t="n">
-        <v>50477.40112505095</v>
+        <v>48966.26526601881</v>
       </c>
       <c r="F6" t="n">
-        <v>97898.12339232513</v>
+        <v>98520.0996673163</v>
       </c>
       <c r="G6" t="n">
-        <v>97898.12339232513</v>
+        <v>98520.0996673163</v>
       </c>
       <c r="H6" t="n">
-        <v>97898.12339232511</v>
+        <v>98520.0996673163</v>
       </c>
       <c r="I6" t="n">
-        <v>97898.12339232513</v>
+        <v>98520.0996673163</v>
       </c>
       <c r="J6" t="n">
-        <v>97898.12339232513</v>
+        <v>98520.0996673163</v>
       </c>
       <c r="K6" t="n">
-        <v>97898.12339232513</v>
+        <v>98520.0996673163</v>
       </c>
       <c r="L6" t="n">
-        <v>97898.12339232514</v>
+        <v>98520.0996673163</v>
       </c>
       <c r="M6" t="n">
-        <v>97898.12339232514</v>
+        <v>98520.0996673163</v>
       </c>
       <c r="N6" t="n">
-        <v>97898.12339232513</v>
+        <v>98520.0996673163</v>
       </c>
       <c r="O6" t="n">
-        <v>97898.12339232514</v>
+        <v>98520.09966731632</v>
       </c>
       <c r="P6" t="n">
-        <v>97898.12339232511</v>
+        <v>98520.09966731632</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>234.7800381259942</v>
@@ -26744,40 +26746,40 @@
         <v>260.7963925174648</v>
       </c>
       <c r="E3" t="n">
-        <v>319.8212184980426</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8212184980426</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="G3" t="n">
-        <v>319.8212184980426</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="H3" t="n">
-        <v>319.8212184980426</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="I3" t="n">
-        <v>319.8212184980426</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8212184980426</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8212184980426</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8212184980426</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8212184980426</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8212184980426</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="O3" t="n">
-        <v>319.8212184980426</v>
+        <v>322.4763145507376</v>
       </c>
       <c r="P3" t="n">
-        <v>319.8212184980426</v>
+        <v>322.4763145507376</v>
       </c>
     </row>
     <row r="4">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.80207166992762</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>222.9779664560666</v>
+        <v>234.7800381259942</v>
       </c>
       <c r="D3" t="n">
         <v>26.01635439147063</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057782</v>
+        <v>61.67992203327283</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04744551425096528</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4859013728226984</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.829143188160341</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.026878715157869</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.03524733340123</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.487257990159211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.331017154219815</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.465821721585371</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.994035389252334</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.822724256181627</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.123581777068932</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.980349284567201</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.081164655993873</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2076927386336007</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.003795641140077222</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02538558812022168</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2451713378979305</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8740213453672817</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.398381375867085</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.099215779921938</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5.511901490752519</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>6.432129060110555</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.602368376934323</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.039877187533621</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.847533927974613</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.240448055486544</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.576133269429203</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4715261653032402</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.102321734572297</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001670104481593532</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0212824243228203</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1892200998883479</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6400205423626326</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.504667399623395</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.472630753142213</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.164116067049121</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.336116750894459</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.256791351145767</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.008173939738275</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.574012483552738</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.782112822159071</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.9569351881879018</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3708946129713319</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.09093399483386855</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001160859508517472</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.28571344119816</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H11" t="n">
-        <v>13.16731277967066</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K11" t="n">
-        <v>163.5475711458106</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M11" t="n">
-        <v>225.7600302817866</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>216.6282505656767</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P11" t="n">
-        <v>184.8871999860971</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.8425873731879</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I12" t="n">
-        <v>23.68487325669467</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K12" t="n">
-        <v>111.0835641645513</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
@@ -31856,22 +31858,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S12" t="n">
-        <v>12.77776283338877</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I13" t="n">
-        <v>17.343747390025</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R13" t="n">
-        <v>25.93173355231669</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S13" t="n">
-        <v>10.05077501411061</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T13" t="n">
-        <v>2.464196273673442</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.28571344119816</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H14" t="n">
-        <v>13.16731277967066</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K14" t="n">
-        <v>163.5475711458106</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M14" t="n">
-        <v>225.7600302817866</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>216.6282505656767</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P14" t="n">
-        <v>184.8871999860971</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.8425873731879</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I15" t="n">
-        <v>23.68487325669467</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K15" t="n">
-        <v>111.0835641645513</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32093,22 +32095,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S15" t="n">
-        <v>12.77776283338877</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I16" t="n">
-        <v>17.343747390025</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R16" t="n">
-        <v>25.93173355231669</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S16" t="n">
-        <v>10.05077501411061</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T16" t="n">
-        <v>2.464196273673442</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.28571344119816</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H17" t="n">
-        <v>13.16731277967066</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I17" t="n">
-        <v>49.56746744179212</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K17" t="n">
-        <v>163.5475711458106</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L17" t="n">
-        <v>202.8952238718788</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M17" t="n">
-        <v>225.7600302817866</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>216.6282505656767</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P17" t="n">
-        <v>184.8871999860971</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.8425873731879</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H18" t="n">
-        <v>6.643833237100848</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I18" t="n">
-        <v>23.68487325669467</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K18" t="n">
-        <v>111.0835641645513</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,22 +32332,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>131.3620397261111</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.8120447468588</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R18" t="n">
-        <v>42.71121857602163</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S18" t="n">
-        <v>12.77776283338877</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I19" t="n">
-        <v>17.343747390025</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K19" t="n">
-        <v>67.00516676073742</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L19" t="n">
-        <v>85.74354438224572</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M19" t="n">
-        <v>90.40454541904504</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N19" t="n">
-        <v>88.25492739307465</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.29300399320443</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R19" t="n">
-        <v>25.93173355231669</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S19" t="n">
-        <v>10.05077501411061</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T19" t="n">
-        <v>2.464196273673442</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.28571344119816</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H20" t="n">
-        <v>13.16731277967066</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179213</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K20" t="n">
-        <v>163.5475711458106</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718789</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M20" t="n">
-        <v>225.7600302817866</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N20" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>216.6282505656767</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P20" t="n">
-        <v>184.8871999860971</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.8425873731879</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100849</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I21" t="n">
-        <v>23.68487325669467</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K21" t="n">
-        <v>111.0835641645513</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
@@ -32567,22 +32569,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261112</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.81204474685882</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602164</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S21" t="n">
-        <v>12.77776283338877</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I22" t="n">
-        <v>17.343747390025</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073744</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224573</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904505</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307467</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320444</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R22" t="n">
-        <v>25.93173355231669</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S22" t="n">
-        <v>10.05077501411061</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T22" t="n">
-        <v>2.464196273673442</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.28571344119816</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H23" t="n">
-        <v>13.16731277967066</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179213</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K23" t="n">
-        <v>163.5475711458106</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718789</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M23" t="n">
-        <v>225.7600302817866</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>216.6282505656767</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P23" t="n">
-        <v>184.8871999860971</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.8425873731879</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100849</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I24" t="n">
-        <v>23.68487325669467</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K24" t="n">
-        <v>111.0835641645513</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -32804,22 +32806,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261112</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.81204474685882</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602164</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S24" t="n">
-        <v>12.77776283338877</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I25" t="n">
-        <v>17.343747390025</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073744</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224573</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904505</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307467</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320444</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R25" t="n">
-        <v>25.93173355231669</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S25" t="n">
-        <v>10.05077501411061</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T25" t="n">
-        <v>2.464196273673442</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.28571344119816</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H26" t="n">
-        <v>13.16731277967066</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K26" t="n">
-        <v>163.5475711458106</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M26" t="n">
-        <v>225.7600302817866</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N26" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>216.6282505656767</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P26" t="n">
-        <v>184.8871999860971</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.8425873731879</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I27" t="n">
-        <v>23.68487325669467</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K27" t="n">
-        <v>111.0835641645513</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
@@ -33041,22 +33043,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S27" t="n">
-        <v>12.77776283338877</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I28" t="n">
-        <v>17.343747390025</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R28" t="n">
-        <v>25.93173355231669</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S28" t="n">
-        <v>10.05077501411061</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T28" t="n">
-        <v>2.464196273673442</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.28571344119816</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H29" t="n">
-        <v>13.16731277967066</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K29" t="n">
-        <v>163.5475711458106</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M29" t="n">
-        <v>225.7600302817866</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N29" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>216.6282505656767</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P29" t="n">
-        <v>184.8871999860971</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.8425873731879</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I30" t="n">
-        <v>23.68487325669467</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K30" t="n">
-        <v>111.0835641645513</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33278,22 +33280,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S30" t="n">
-        <v>12.77776283338877</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I31" t="n">
-        <v>17.343747390025</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R31" t="n">
-        <v>25.93173355231669</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S31" t="n">
-        <v>10.05077501411061</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T31" t="n">
-        <v>2.464196273673442</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.28571344119816</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H32" t="n">
-        <v>13.16731277967066</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K32" t="n">
-        <v>163.5475711458106</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M32" t="n">
-        <v>225.7600302817866</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>216.6282505656767</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P32" t="n">
-        <v>184.8871999860971</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.8425873731879</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I33" t="n">
-        <v>23.68487325669467</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K33" t="n">
-        <v>111.0835641645513</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33515,22 +33517,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S33" t="n">
-        <v>12.77776283338877</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I34" t="n">
-        <v>17.343747390025</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R34" t="n">
-        <v>25.93173355231669</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S34" t="n">
-        <v>10.05077501411061</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T34" t="n">
-        <v>2.464196273673442</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.28571344119816</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H35" t="n">
-        <v>13.16731277967066</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K35" t="n">
-        <v>163.5475711458106</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M35" t="n">
-        <v>225.7600302817866</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>216.6282505656767</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P35" t="n">
-        <v>184.8871999860971</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.8425873731879</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I36" t="n">
-        <v>23.68487325669467</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K36" t="n">
-        <v>111.0835641645513</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,22 +33754,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S36" t="n">
-        <v>12.77776283338877</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I37" t="n">
-        <v>17.343747390025</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R37" t="n">
-        <v>25.93173355231669</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S37" t="n">
-        <v>10.05077501411061</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T37" t="n">
-        <v>2.464196273673442</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.28571344119816</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H38" t="n">
-        <v>13.16731277967066</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K38" t="n">
-        <v>163.5475711458106</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M38" t="n">
-        <v>225.7600302817866</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>216.6282505656767</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P38" t="n">
-        <v>184.8871999860971</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.8425873731879</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I39" t="n">
-        <v>23.68487325669467</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K39" t="n">
-        <v>111.0835641645513</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,22 +33991,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S39" t="n">
-        <v>12.77776283338877</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I40" t="n">
-        <v>17.343747390025</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R40" t="n">
-        <v>25.93173355231669</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S40" t="n">
-        <v>10.05077501411061</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T40" t="n">
-        <v>2.464196273673442</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.28571344119816</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H41" t="n">
-        <v>13.16731277967066</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K41" t="n">
-        <v>163.5475711458106</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M41" t="n">
-        <v>225.7600302817866</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N41" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>216.6282505656767</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P41" t="n">
-        <v>184.8871999860971</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.8425873731879</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I42" t="n">
-        <v>23.68487325669467</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K42" t="n">
-        <v>111.0835641645513</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34226,22 +34228,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S42" t="n">
-        <v>12.77776283338877</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I43" t="n">
-        <v>17.343747390025</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R43" t="n">
-        <v>25.93173355231669</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S43" t="n">
-        <v>10.05077501411061</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T43" t="n">
-        <v>2.464196273673442</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.28571344119816</v>
+        <v>1.296387194173819</v>
       </c>
       <c r="H44" t="n">
-        <v>13.16731277967066</v>
+        <v>13.27662535233262</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>49.97896730338619</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>110.0292426215102</v>
       </c>
       <c r="K44" t="n">
-        <v>163.5475711458106</v>
+        <v>164.905312550888</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>204.5796221445851</v>
       </c>
       <c r="M44" t="n">
-        <v>225.7600302817866</v>
+        <v>227.6342479089737</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>216.6282505656767</v>
+        <v>218.4266578623542</v>
       </c>
       <c r="P44" t="n">
-        <v>184.8871999860971</v>
+        <v>186.422099006188</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.8425873731879</v>
+        <v>139.995232614838</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>81.43418208602121</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.54142318723592</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.674934942495894</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.1037109755339055</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6936282992223414</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>6.698989100384193</v>
       </c>
       <c r="I45" t="n">
-        <v>23.68487325669467</v>
+        <v>23.88150065304992</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>65.5326631295985</v>
       </c>
       <c r="K45" t="n">
-        <v>111.0835641645513</v>
+        <v>112.0057591774954</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -34463,22 +34465,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>132.4525828576417</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>88.54104394985538</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>43.06579913943627</v>
       </c>
       <c r="S45" t="n">
-        <v>12.77776283338877</v>
+        <v>12.88384143511673</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.795808802567243</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04563344073831195</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5815146655832973</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.170194026731502</v>
       </c>
       <c r="I46" t="n">
-        <v>17.343747390025</v>
+        <v>17.48773194317771</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>41.11308685673912</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>67.56143114685943</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>86.45537128135678</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>91.15506707866177</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>88.9876033251241</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>82.19445473171918</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>70.33155555381985</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>48.69392349716139</v>
       </c>
       <c r="R46" t="n">
-        <v>25.93173355231669</v>
+        <v>26.14701396340898</v>
       </c>
       <c r="S46" t="n">
-        <v>10.05077501411061</v>
+        <v>10.13421467202891</v>
       </c>
       <c r="T46" t="n">
-        <v>2.464196273673442</v>
+        <v>2.484653571128633</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.03171898175908898</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370871.9423029713</v>
+        <v>254757.4850885032</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11922202.98578054</v>
+        <v>11102227.21276787</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22721791.95832266</v>
+        <v>17465467.27538588</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3269185.935075006</v>
+        <v>5759895.076385834</v>
       </c>
     </row>
     <row r="11">
@@ -8300,7 +8300,7 @@
         <v>56.29524403393702</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.90545725697471</v>
       </c>
       <c r="M6" t="n">
         <v>14.17891314335149</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>22.44423757443683</v>
       </c>
       <c r="P6" t="n">
         <v>37.54182911310821</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>79.82491575659759</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>71.94053294496764</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>72.56001021962938</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>62.89780050171086</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>78.61457070130248</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>86.52286261917671</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,7 +8537,7 @@
         <v>47.25897875440141</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P9" t="n">
         <v>26.85597970277001</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8853,19 +8853,19 @@
         <v>61.45182702367595</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N13" t="n">
         <v>38.69794114010909</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8929,22 +8929,22 @@
         <v>71.01666190517604</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q14" t="n">
         <v>82.31045725961144</v>
@@ -9008,7 +9008,7 @@
         <v>61.30496353706819</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q15" t="n">
         <v>51.44073013616614</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q18" t="n">
         <v>51.44073013616614</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9482,7 +9482,7 @@
         <v>61.30496353706819</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q21" t="n">
         <v>51.44073013616614</v>
@@ -9567,7 +9567,7 @@
         <v>48.42930499988151</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N22" t="n">
         <v>38.69794114010909</v>
@@ -9576,10 +9576,10 @@
         <v>56.26208372012361</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>71.01666190517604</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q23" t="n">
         <v>82.31045725961144</v>
@@ -9719,7 +9719,7 @@
         <v>61.30496353706819</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q24" t="n">
         <v>51.44073013616614</v>
@@ -9880,19 +9880,19 @@
         <v>55.18453849409252</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q26" t="n">
         <v>82.31045725961144</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q27" t="n">
         <v>51.44073013616614</v>
@@ -10114,22 +10114,22 @@
         <v>71.01666190517604</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q29" t="n">
         <v>82.31045725961144</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>61.30496353706819</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10287,7 +10287,7 @@
         <v>56.26208372012361</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10354,22 +10354,22 @@
         <v>55.18453849409252</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,7 +10430,7 @@
         <v>61.30496353706819</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q33" t="n">
         <v>51.44073013616614</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K35" t="n">
         <v>55.18453849409252</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10752,13 +10752,13 @@
         <v>48.42930499988151</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N37" t="n">
         <v>38.69794114010909</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P37" t="n">
         <v>67.39644849532776</v>
@@ -10825,22 +10825,22 @@
         <v>71.01666190517604</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q38" t="n">
         <v>82.31045725961144</v>
@@ -10904,7 +10904,7 @@
         <v>61.30496353706819</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q39" t="n">
         <v>51.44073013616614</v>
@@ -11062,25 +11062,25 @@
         <v>71.01666190517604</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>61.30496353706819</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11232,10 +11232,10 @@
         <v>38.69794114010909</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>71.01666190517604</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>55.18453849409252</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>31.18679282540216</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>2.711985318299043</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>11.67155355933255</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>44.81089674908156</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>82.31045725961144</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>61.30496353706819</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>25.83567979686363</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1.521824556688586</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>51.44073013616614</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11457,22 +11457,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>61.45182702367595</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>48.42930499988151</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>47.77071686894328</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>38.69794114010909</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>56.26208372012361</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>67.39644849532776</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,34 +22704,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>414.3588981658848</v>
+        <v>14.35889816588482</v>
       </c>
       <c r="H5" t="n">
-        <v>329.8087073802583</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>174.0885230584365</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>90.58066941881005</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>187.5123304152058</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.9641928127885</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2701457598965</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8385185906377</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>107.3582211803319</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>72.00962059397116</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22892,7 +22892,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>28.90545725697471</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -22901,7 +22901,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>22.44423757443683</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>68.80362453272261</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>162.3030441088983</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.1292300623896</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.908158490674</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,76 +22941,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.5676055192152</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>158.4629941912556</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7184689252781</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>97.06289100487388</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>79.82491575659759</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>71.94053294496764</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>72.56001021962938</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>62.89780050171086</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>78.61457070130248</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>86.52286261917671</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>116.0532158724207</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>158.2569640235438</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>216.6383466748816</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>226.1366284787861</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2959362379867</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,76 +23020,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>414.2543098065221</v>
+        <v>14.25430980652214</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>86.72591490550931</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>70.31665934305323</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>42.33948647951536</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>53.44993733213093</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>80.46778072209531</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>109.0872921559756</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.7272407629755</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23129,7 +23129,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.75508344424118</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23138,7 +23138,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>9.130000058643361</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604451</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.78178798155719</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23281,28 +23281,28 @@
         <v>160.4969222670197</v>
       </c>
       <c r="J11" t="n">
-        <v>71.01666190517604</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>55.18453849409252</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>31.18679282540216</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>11.67155355933255</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>44.81089674908156</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>82.31045725961144</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>68.43493585512847</v>
@@ -23360,10 +23360,10 @@
         <v>65.51513219836517</v>
       </c>
       <c r="J12" t="n">
-        <v>61.30496353706819</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>25.83567979686363</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23378,10 +23378,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.44073013616614</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>57.09203501320687</v>
@@ -23445,19 +23445,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>48.42930499988151</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>47.77071686894328</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>56.26208372012361</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>67.39644849532776</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>37.468119754533</v>
@@ -23521,22 +23521,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>55.18453849409252</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>31.18679282540216</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>11.67155355933255</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>44.81089674908156</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -23600,7 +23600,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>25.83567979686363</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23615,7 +23615,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -23755,31 +23755,31 @@
         <v>160.4969222670197</v>
       </c>
       <c r="J17" t="n">
-        <v>71.01666190517604</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>55.18453849409252</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>31.18679282540216</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>11.67155355933255</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>44.81089674908156</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>82.31045725961144</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>134.1513557281109</v>
+        <v>68.43493585512847</v>
       </c>
       <c r="S17" t="n">
         <v>179.4786463990094</v>
@@ -23852,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -23992,28 +23992,28 @@
         <v>160.4969222670197</v>
       </c>
       <c r="J20" t="n">
-        <v>71.01666190517604</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>55.18453849409252</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>31.18679282540216</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>11.67155355933255</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>44.81089674908156</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>82.31045725961144</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>68.43493585512847</v>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>25.83567979686363</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24089,7 +24089,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -24159,7 +24159,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>47.77071686894328</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -24168,10 +24168,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>67.39644849532776</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>102.8110781322845</v>
+        <v>37.468119754533</v>
       </c>
       <c r="R22" t="n">
         <v>151.1463774137605</v>
@@ -24232,22 +24232,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>55.18453849409252</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>31.18679282540216</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>11.67155355933255</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>44.81089674908156</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -24311,7 +24311,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>25.83567979686363</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24326,7 +24326,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -24472,19 +24472,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>31.18679282540216</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>11.67155355933255</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>44.81089674908156</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -24545,10 +24545,10 @@
         <v>65.51513219836517</v>
       </c>
       <c r="J27" t="n">
-        <v>61.30496353706819</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>25.83567979686363</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24706,22 +24706,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>55.18453849409252</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>31.18679282540216</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>11.67155355933255</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>44.81089674908156</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24782,10 +24782,10 @@
         <v>65.51513219836517</v>
       </c>
       <c r="J30" t="n">
-        <v>61.30496353706819</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>25.83567979686363</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24800,10 +24800,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.44073013616614</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>57.09203501320687</v>
@@ -24879,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>67.39644849532776</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>37.468119754533</v>
@@ -24946,22 +24946,22 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>31.18679282540216</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>11.67155355933255</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>44.81089674908156</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>82.31045725961144</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>68.43493585512847</v>
@@ -25022,7 +25022,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>25.83567979686363</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25037,7 +25037,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -25177,28 +25177,28 @@
         <v>160.4969222670197</v>
       </c>
       <c r="J35" t="n">
-        <v>71.01666190517604</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>31.18679282540216</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>11.67155355933255</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>44.81089674908156</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>82.31045725961144</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>68.43493585512847</v>
@@ -25274,10 +25274,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.44073013616614</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>57.09203501320687</v>
@@ -25344,13 +25344,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>47.77071686894328</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>56.26208372012361</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -25417,22 +25417,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>55.18453849409252</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>31.18679282540216</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>11.67155355933255</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>44.81089674908156</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -25496,7 +25496,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>25.83567979686363</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25511,7 +25511,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25654,25 +25654,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>55.18453849409252</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>31.18679282540216</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>11.67155355933255</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>44.81089674908156</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>82.31045725961144</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>68.43493585512847</v>
@@ -25733,7 +25733,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>25.83567979686363</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25748,10 +25748,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.44073013616614</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>57.09203501320687</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>56.26208372012361</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>67.39644849532776</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>37.468119754533</v>
@@ -25888,28 +25888,28 @@
         <v>160.4969222670197</v>
       </c>
       <c r="J44" t="n">
-        <v>71.01666190517604</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>55.18453849409252</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>31.18679282540216</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2.711985318299043</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>11.67155355933255</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>44.81089674908156</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>82.31045725961144</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>68.43493585512847</v>
@@ -25970,7 +25970,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>25.83567979686363</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,10 +25985,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>1.521824556688586</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.44073013616614</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>57.09203501320687</v>
@@ -26049,22 +26049,22 @@
         <v>52.24609325993366</v>
       </c>
       <c r="K46" t="n">
-        <v>61.45182702367595</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>48.42930499988151</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>47.77071686894328</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>38.69794114010909</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>56.26208372012361</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>67.39644849532776</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>37.468119754533</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>376275.9193600624</v>
+        <v>1101389.752545038</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>302471.0138700332</v>
+        <v>1032659.114259882</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>232158.928918807</v>
+        <v>1025237.443070587</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>251937.8431668974</v>
+        <v>313203.3387672866</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>290896.100608646</v>
+        <v>313203.3387672866</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>262300.3430616119</v>
+        <v>313203.3387672866</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>261956.2077118261</v>
+        <v>313203.3387672866</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>290896.100608646</v>
+        <v>313203.3387672866</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>294034.4785264226</v>
+        <v>313203.3387672866</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>279699.7193012882</v>
+        <v>313203.3387672866</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>287117.4601246093</v>
+        <v>313203.3387672866</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>270955.5667613011</v>
+        <v>313203.3387672866</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>290896.100608646</v>
+        <v>313203.3387672866</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>270419.6933832295</v>
+        <v>313203.3387672866</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>252280.3811984689</v>
+        <v>313203.3387672866</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118258.146084591</v>
+        <v>450601.9862943712</v>
       </c>
       <c r="C2" t="n">
-        <v>119858.2105732759</v>
+        <v>450643.3075810812</v>
       </c>
       <c r="D2" t="n">
-        <v>100401.1297624971</v>
+        <v>450647.8864594541</v>
       </c>
       <c r="E2" t="n">
-        <v>112353.3483258748</v>
+        <v>131608.2183717113</v>
       </c>
       <c r="F2" t="n">
-        <v>124597.3720932814</v>
+        <v>131608.2183717113</v>
       </c>
       <c r="G2" t="n">
-        <v>115610.1340070707</v>
+        <v>131608.2183717113</v>
       </c>
       <c r="H2" t="n">
-        <v>115501.9771828524</v>
+        <v>131608.2183717113</v>
       </c>
       <c r="I2" t="n">
-        <v>124597.3720932814</v>
+        <v>131608.2183717113</v>
       </c>
       <c r="J2" t="n">
-        <v>125583.7194388684</v>
+        <v>131608.2183717113</v>
       </c>
       <c r="K2" t="n">
-        <v>121078.5093966833</v>
+        <v>131608.2183717113</v>
       </c>
       <c r="L2" t="n">
-        <v>123409.799369727</v>
+        <v>131608.2183717113</v>
       </c>
       <c r="M2" t="n">
-        <v>118330.3471698302</v>
+        <v>131608.2183717113</v>
       </c>
       <c r="N2" t="n">
-        <v>124597.3720932814</v>
+        <v>131608.2183717113</v>
       </c>
       <c r="O2" t="n">
-        <v>118161.9298224363</v>
+        <v>131608.2183717113</v>
       </c>
       <c r="P2" t="n">
-        <v>112461.0031357973</v>
+        <v>131608.2183717113</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>118258.146084591</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>40962.19080106747</v>
+        <v>383917.1692412724</v>
       </c>
       <c r="D4" t="n">
-        <v>13101.91852790432</v>
+        <v>375482.0462084095</v>
       </c>
       <c r="E4" t="n">
-        <v>6803.265001352403</v>
+        <v>26058.13504718889</v>
       </c>
       <c r="F4" t="n">
-        <v>19047.28876875907</v>
+        <v>26058.13504718889</v>
       </c>
       <c r="G4" t="n">
-        <v>10060.05068254836</v>
+        <v>26058.13504718889</v>
       </c>
       <c r="H4" t="n">
-        <v>9951.893858329975</v>
+        <v>26058.13504718889</v>
       </c>
       <c r="I4" t="n">
-        <v>19047.28876875907</v>
+        <v>26058.13504718889</v>
       </c>
       <c r="J4" t="n">
-        <v>20033.63611434601</v>
+        <v>26058.13504718889</v>
       </c>
       <c r="K4" t="n">
-        <v>15528.42607216092</v>
+        <v>26058.13504718889</v>
       </c>
       <c r="L4" t="n">
-        <v>17859.71604520465</v>
+        <v>26058.13504718889</v>
       </c>
       <c r="M4" t="n">
-        <v>12780.26384530783</v>
+        <v>26058.13504718889</v>
       </c>
       <c r="N4" t="n">
-        <v>19047.28876875907</v>
+        <v>26058.13504718889</v>
       </c>
       <c r="O4" t="n">
-        <v>12611.84649791393</v>
+        <v>26058.13504718889</v>
       </c>
       <c r="P4" t="n">
-        <v>6910.919811274869</v>
+        <v>26058.13504718889</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.59999999998</v>
+        <v>-46220.4805864197</v>
       </c>
       <c r="C6" t="n">
-        <v>-173640.9573365448</v>
+        <v>-185853.0963073205</v>
       </c>
       <c r="D6" t="n">
-        <v>25705.47974789509</v>
+        <v>13530.05935680593</v>
       </c>
       <c r="E6" t="n">
-        <v>48966.26526601881</v>
+        <v>34422.4127635804</v>
       </c>
       <c r="F6" t="n">
-        <v>98520.0996673163</v>
+        <v>83976.24716487792</v>
       </c>
       <c r="G6" t="n">
-        <v>98520.0996673163</v>
+        <v>83976.24716487792</v>
       </c>
       <c r="H6" t="n">
-        <v>98520.0996673163</v>
+        <v>83976.24716487792</v>
       </c>
       <c r="I6" t="n">
-        <v>98520.0996673163</v>
+        <v>83976.24716487792</v>
       </c>
       <c r="J6" t="n">
-        <v>98520.0996673163</v>
+        <v>83976.24716487792</v>
       </c>
       <c r="K6" t="n">
-        <v>98520.0996673163</v>
+        <v>83976.24716487792</v>
       </c>
       <c r="L6" t="n">
-        <v>98520.0996673163</v>
+        <v>83976.24716487792</v>
       </c>
       <c r="M6" t="n">
-        <v>98520.0996673163</v>
+        <v>83976.24716487792</v>
       </c>
       <c r="N6" t="n">
-        <v>98520.0996673163</v>
+        <v>83976.24716487792</v>
       </c>
       <c r="O6" t="n">
-        <v>98520.09966731632</v>
+        <v>83976.24716487792</v>
       </c>
       <c r="P6" t="n">
-        <v>98520.09966731632</v>
+        <v>83976.24716487792</v>
       </c>
     </row>
   </sheetData>
@@ -27378,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,31 +27423,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,34 +27536,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,34 +27578,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_22_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>254757.4850885032</v>
+        <v>358162.0060170685</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17465467.27538588</v>
+        <v>21901816.18530999</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5759895.076385834</v>
+        <v>3710389.129036075</v>
       </c>
     </row>
     <row r="11">
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,34 +22704,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,34 +22746,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>14.35889816588482</v>
+        <v>414.3588981658848</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.8087073802583</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>174.0885230584365</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>90.58066941881005</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>187.5123304152058</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.9641928127885</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2701457598965</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.8385185906377</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>107.3582211803319</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>72.00962059397116</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>68.80362453272261</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>162.3030441088983</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.1292300623896</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.908158490674</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.5676055192152</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>158.4629941912556</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>142.7184689252781</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>63.42664968215054</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>50.71025749466926</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>158.2569640235438</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>216.6383466748816</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>226.1366284787861</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2959362379867</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>14.25430980652214</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1101389.752545038</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1032659.114259882</v>
+        <v>329437.4367091661</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1025237.443070587</v>
+        <v>324125.4770427022</v>
       </c>
     </row>
     <row r="5">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450601.9862943712</v>
+        <v>118258.146084591</v>
       </c>
       <c r="C2" t="n">
-        <v>450643.3075810812</v>
+        <v>128333.3720370033</v>
       </c>
       <c r="D2" t="n">
-        <v>450647.8864594541</v>
+        <v>129304.9020300069</v>
       </c>
       <c r="E2" t="n">
         <v>131608.2183717113</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463150.7311021098</v>
+        <v>118258.146084591</v>
       </c>
       <c r="C4" t="n">
-        <v>383917.1692412724</v>
+        <v>49437.35226479494</v>
       </c>
       <c r="D4" t="n">
-        <v>375482.0462084095</v>
+        <v>42005.69079541415</v>
       </c>
       <c r="E4" t="n">
         <v>26058.13504718889</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-46220.4805864197</v>
+        <v>-35142.66739700346</v>
       </c>
       <c r="C6" t="n">
-        <v>-185853.0963073205</v>
+        <v>-175110.2282519464</v>
       </c>
       <c r="D6" t="n">
-        <v>13530.05935680593</v>
+        <v>24240.62487791624</v>
       </c>
       <c r="E6" t="n">
-        <v>34422.4127635804</v>
+        <v>47511.88001577496</v>
       </c>
       <c r="F6" t="n">
-        <v>83976.24716487792</v>
+        <v>97065.71441707246</v>
       </c>
       <c r="G6" t="n">
-        <v>83976.24716487792</v>
+        <v>97065.71441707246</v>
       </c>
       <c r="H6" t="n">
-        <v>83976.24716487792</v>
+        <v>97065.71441707246</v>
       </c>
       <c r="I6" t="n">
-        <v>83976.24716487792</v>
+        <v>97065.71441707246</v>
       </c>
       <c r="J6" t="n">
-        <v>83976.24716487792</v>
+        <v>97065.71441707246</v>
       </c>
       <c r="K6" t="n">
-        <v>83976.24716487792</v>
+        <v>97065.71441707246</v>
       </c>
       <c r="L6" t="n">
-        <v>83976.24716487792</v>
+        <v>97065.71441707246</v>
       </c>
       <c r="M6" t="n">
-        <v>83976.24716487792</v>
+        <v>97065.71441707246</v>
       </c>
       <c r="N6" t="n">
-        <v>83976.24716487792</v>
+        <v>97065.71441707246</v>
       </c>
       <c r="O6" t="n">
-        <v>83976.24716487792</v>
+        <v>97065.71441707246</v>
       </c>
       <c r="P6" t="n">
-        <v>83976.24716487792</v>
+        <v>97065.71441707246</v>
       </c>
     </row>
   </sheetData>
@@ -27378,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27423,31 +27423,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,34 +27536,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,34 +27578,34 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>329.8087073802583</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>174.0885230584365</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>90.58066941881005</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>187.5123304152058</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.9641928127885</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2701457598965</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.8385185906377</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>107.3582211803319</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>72.00962059397116</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>68.80362453272261</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>162.3030441088983</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.1292300623896</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.908158490674</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.5676055192152</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>158.4629941912556</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>142.7184689252781</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>63.42664968215054</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>50.71025749466926</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>158.2569640235438</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>216.6383466748816</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>226.1366284787861</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2959362379867</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>328.737591844935</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>170.0563803341062</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.01082088999308</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.1290231762283</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.5063572696783</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2617786911475</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.7825588849655</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>106.817768233445</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>70.08293774516886</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>65.32921403493339</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>161.2636171197674</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>197.9036731785617</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9044769310903</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5206907817879</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>158.0458795257661</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>141.3076148215571</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604451</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.78178798155719</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>156.1475068297698</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>215.8207507508087</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.9361746006879</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2933772523089</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
